--- a/solutions/module6.xlsx
+++ b/solutions/module6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerry\repos\busi721-901\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A46CD-3010-45A6-8352-B7E2AD80A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A3692-B32F-4015-AEB9-1245C86EF4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="5" xr2:uid="{C5B93B0A-80ED-4B96-90E1-BAB72D3F6422}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{C5B93B0A-80ED-4B96-90E1-BAB72D3F6422}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 6.1" sheetId="1" r:id="rId1"/>
@@ -283,9 +283,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -401,14 +401,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4"/>
@@ -416,8 +415,7 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -428,10 +426,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -753,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3B0193-5B58-4B8D-AC69-98DF82FFB592}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -783,110 +781,106 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>0.1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>100</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>60</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>30</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>15</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>10</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>12</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <v>8</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>6</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <v>4</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>4</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>5</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <v>3</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27">
         <v>5</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <v>35</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <v>15</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
@@ -976,22 +970,22 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>B13/(1+$B$2)</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f t="shared" ref="D13:F13" si="3">C13/(1+$B$2)</f>
         <v>0.82644628099173545</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="3"/>
         <v>0.75131480090157765</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="3"/>
         <v>0.68301345536507052</v>
       </c>
@@ -1022,10 +1016,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <f>SUM(B14:F14)</f>
         <v>28.054572775083646</v>
       </c>
@@ -1064,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1581986F-0A6F-4167-86FE-67301E5D66B5}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1094,110 +1088,106 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>0.1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>100</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>60</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>30</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>15</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>10</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>12</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <v>8</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <v>6</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <v>4</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>4</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>5</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <v>3</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27">
         <v>5</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <v>35</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <v>15</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>5</v>
       </c>
     </row>
@@ -1238,19 +1228,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>C8/B10</f>
         <v>4.8543689320388349E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f t="shared" ref="D11:F11" si="1">D8/C10</f>
         <v>0.49295774647887325</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>0.34883720930232559</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>0.20833333333333334</v>
       </c>
@@ -1260,19 +1250,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <f>C11-$B$2</f>
         <v>-5.1456310679611657E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f t="shared" ref="D12:F12" si="2">D11-$B$2</f>
         <v>0.39295774647887327</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f t="shared" si="2"/>
         <v>0.24883720930232558</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="2"/>
         <v>0.10833333333333334</v>
       </c>
@@ -1303,22 +1293,22 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f>B14/(1+$B$2)</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f t="shared" ref="D14:F14" si="4">C14/(1+$B$2)</f>
         <v>0.82644628099173545</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="4"/>
         <v>0.75131480090157765</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="4"/>
         <v>0.68301345536507052</v>
       </c>
@@ -1346,10 +1336,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <f>SUM(B15:F15)</f>
         <v>28.05457277508367</v>
       </c>
@@ -1388,11 +1378,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA46CA0B-3E72-45E8-8138-82DC15EFAAA7}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1447,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5157B9B-3C7E-4944-85CE-AE6CB24A9276}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A52" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1457,7 +1450,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1488,34 +1481,34 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9">
         <v>0.2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.32</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.192</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.1152</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.1152</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>100</v>
       </c>
       <c r="C5" s="2"/>
@@ -1532,27 +1525,27 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f>C4*$B$5</f>
+        <f t="shared" ref="C6:H6" si="0">C4*$B$5</f>
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <f>D4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E6" s="2">
-        <f>E4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
       <c r="F6" s="2">
-        <f>F4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>11.52</v>
       </c>
       <c r="G6" s="2">
-        <f>G4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>11.52</v>
       </c>
       <c r="H6" s="2">
-        <f>H4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>5.76</v>
       </c>
     </row>
@@ -1560,31 +1553,31 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
         <f>C6</f>
         <v>20</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f>D6+C7</f>
         <v>52</v>
       </c>
-      <c r="E7" s="8">
-        <f t="shared" ref="E7:H7" si="0">E6+D7</f>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:H7" si="1">E6+D7</f>
         <v>71.2</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
         <v>82.72</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
         <v>94.24</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1592,64 +1585,64 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>B5</f>
         <v>100</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:H8" si="1">$B$5-C7</f>
+        <f t="shared" ref="C8:H8" si="2">$B$5-C7</f>
         <v>80</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.799999999999997</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.28</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7600000000000051</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -1680,26 +1673,26 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10">
         <v>50</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>80</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>100</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>100</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>100</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>80</v>
       </c>
     </row>
@@ -1713,23 +1706,23 @@
         <v>-20</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" ref="D18:H18" si="2">-$B$12*D17</f>
+        <f t="shared" ref="D18:H18" si="3">-$B$12*D17</f>
         <v>-32</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-40</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-32</v>
       </c>
     </row>
@@ -1743,23 +1736,23 @@
         <v>-10</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:H19" si="3">-$B$13</f>
+        <f t="shared" ref="D19:H19" si="4">-$B$13</f>
         <v>-10</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
     </row>
@@ -1767,28 +1760,28 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8">
-        <f>-C6</f>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:H20" si="5">-C6</f>
         <v>-20</v>
       </c>
-      <c r="D20" s="8">
-        <f>-D6</f>
+      <c r="D20" s="7">
+        <f t="shared" si="5"/>
         <v>-32</v>
       </c>
-      <c r="E20" s="8">
-        <f>-E6</f>
+      <c r="E20" s="7">
+        <f t="shared" si="5"/>
         <v>-19.2</v>
       </c>
-      <c r="F20" s="8">
-        <f>-F6</f>
+      <c r="F20" s="7">
+        <f t="shared" si="5"/>
         <v>-11.52</v>
       </c>
-      <c r="G20" s="8">
-        <f>-G6</f>
+      <c r="G20" s="7">
+        <f t="shared" si="5"/>
         <v>-11.52</v>
       </c>
-      <c r="H20" s="8">
-        <f>-H6</f>
+      <c r="H20" s="7">
+        <f t="shared" si="5"/>
         <v>-5.76</v>
       </c>
     </row>
@@ -1797,57 +1790,57 @@
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <f>SUM(B17:B20)</f>
+        <f>SUM(C17:C20)</f>
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f>SUM(C17:C20)</f>
-        <v>0</v>
+        <f t="shared" ref="D21:H21" si="6">SUM(D17:D20)</f>
+        <v>6</v>
       </c>
       <c r="E21" s="2">
-        <f>SUM(D17:D20)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>30.8</v>
       </c>
       <c r="F21" s="2">
-        <f>SUM(E17:E20)</f>
-        <v>30.8</v>
+        <f t="shared" si="6"/>
+        <v>38.480000000000004</v>
       </c>
       <c r="G21" s="2">
-        <f>SUM(F17:F20)</f>
+        <f t="shared" si="6"/>
         <v>38.480000000000004</v>
       </c>
       <c r="H21" s="2">
-        <f>SUM(G17:G20)</f>
-        <v>38.480000000000004</v>
+        <f t="shared" si="6"/>
+        <v>32.24</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <f>-$B$14*C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" ref="D22:H22" si="4">-$B$14*D21</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="4"/>
+      <c r="D22" s="7">
+        <f t="shared" ref="D22:H22" si="7">-$B$14*D21</f>
         <v>-1.7999999999999998</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="4"/>
+      <c r="E22" s="7">
+        <f t="shared" si="7"/>
         <v>-9.24</v>
       </c>
-      <c r="G22" s="8">
-        <f t="shared" si="4"/>
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
         <v>-11.544</v>
       </c>
-      <c r="H22" s="8">
-        <f t="shared" si="4"/>
+      <c r="G22" s="7">
+        <f t="shared" si="7"/>
         <v>-11.544</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="7"/>
+        <v>-9.6720000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1859,68 +1852,68 @@
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:H23" si="5">D21+D22</f>
-        <v>0</v>
+        <f t="shared" ref="D23:H23" si="8">D21+D22</f>
+        <v>4.2</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="5"/>
-        <v>4.2</v>
+        <f t="shared" si="8"/>
+        <v>21.560000000000002</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="5"/>
-        <v>21.560000000000002</v>
+        <f t="shared" si="8"/>
+        <v>26.936000000000003</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26.936000000000003</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="5"/>
-        <v>26.936000000000003</v>
+        <f t="shared" si="8"/>
+        <v>22.568000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>0.08</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
@@ -1961,19 +1954,19 @@
         <v>2</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33:H33" si="6">-$B$29*D18</f>
+        <f t="shared" ref="D33:G33" si="9">-$B$29*D18</f>
         <v>3.2</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="H33" s="2">
@@ -1986,27 +1979,27 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
-        <f>B27*C17</f>
+        <f>$B$27*C17</f>
         <v>4</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:H34" si="7">C27*D17</f>
-        <v>0</v>
+        <f t="shared" ref="D34:G34" si="10">$B$27*D17</f>
+        <v>6.4</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D34:H34" si="11">G27*H17</f>
         <v>0</v>
       </c>
     </row>
@@ -2014,31 +2007,30 @@
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="8">
-        <f>-0.5*B33</f>
-        <v>-1</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
         <f>$B$30*C18</f>
         <v>-1</v>
       </c>
-      <c r="D35" s="8">
-        <f t="shared" ref="D35:H35" si="8">$B$30*D18</f>
+      <c r="D35" s="7">
+        <f t="shared" ref="D35:G35" si="12">$B$30*D18</f>
         <v>-1.6</v>
       </c>
-      <c r="E35" s="8">
-        <f t="shared" si="8"/>
+      <c r="E35" s="7">
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-      <c r="F35" s="8">
-        <f t="shared" si="8"/>
+      <c r="F35" s="7">
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-      <c r="G35" s="8">
-        <f t="shared" si="8"/>
+      <c r="G35" s="7">
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2048,40 +2040,40 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B33:B35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ref="C36:H36" si="9">SUM(C33:C35)</f>
+        <f t="shared" ref="C36:H36" si="13">SUM(C33:C35)</f>
         <v>5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="9"/>
-        <v>1.6</v>
+        <f t="shared" si="13"/>
+        <v>8.0000000000000018</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
@@ -2113,32 +2105,32 @@
       <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="12">
-        <f>B8</f>
+      <c r="B41" s="11">
+        <f t="shared" ref="B41:H41" si="14">B8</f>
         <v>100</v>
       </c>
       <c r="C41" s="2">
-        <f>C8</f>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="D41" s="2">
-        <f>D8</f>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="E41" s="2">
-        <f>E8</f>
+        <f t="shared" si="14"/>
         <v>28.799999999999997</v>
       </c>
       <c r="F41" s="2">
-        <f>F8</f>
+        <f t="shared" si="14"/>
         <v>17.28</v>
       </c>
       <c r="G41" s="2">
-        <f>G8</f>
+        <f t="shared" si="14"/>
         <v>5.7600000000000051</v>
       </c>
       <c r="H41" s="2">
-        <f>H8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2146,32 +2138,32 @@
       <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <f>B36</f>
-        <v>1</v>
-      </c>
-      <c r="C42" s="8">
-        <f t="shared" ref="C42:G42" si="10">C36</f>
+        <v>2</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" ref="C42:G42" si="15">C36</f>
         <v>5</v>
       </c>
-      <c r="D42" s="8">
-        <f t="shared" si="10"/>
-        <v>1.6</v>
-      </c>
-      <c r="E42" s="8">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" ref="H42" si="11">H36</f>
+      <c r="D42" s="7">
+        <f t="shared" si="15"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" ref="H42" si="16">H36</f>
         <v>0</v>
       </c>
     </row>
@@ -2181,30 +2173,30 @@
       </c>
       <c r="B43" s="2">
         <f>B41+B42</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ref="C43:H43" si="12">C41+C42</f>
+        <f t="shared" ref="C43:H43" si="17">C41+C42</f>
         <v>85</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="12"/>
-        <v>49.6</v>
+        <f t="shared" si="17"/>
+        <v>56</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="12"/>
-        <v>30.799999999999997</v>
+        <f t="shared" si="17"/>
+        <v>38.799999999999997</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="12"/>
-        <v>19.28</v>
+        <f t="shared" si="17"/>
+        <v>27.28</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="12"/>
-        <v>7.7600000000000051</v>
+        <f t="shared" si="17"/>
+        <v>15.760000000000005</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -2214,40 +2206,40 @@
       </c>
       <c r="B44" s="2">
         <f>B43</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2">
         <f>C43-B43</f>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" ref="D44:H44" si="13">D43-C43</f>
-        <v>-35.4</v>
+        <f t="shared" ref="D44:H44" si="18">D43-C43</f>
+        <v>-29</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="13"/>
-        <v>-18.800000000000004</v>
+        <f t="shared" si="18"/>
+        <v>-17.200000000000003</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-11.519999999999996</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-11.519999999999996</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="13"/>
-        <v>-7.7600000000000051</v>
+        <f t="shared" si="18"/>
+        <v>-15.760000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
@@ -2283,61 +2275,61 @@
         <v>0</v>
       </c>
       <c r="C49" s="2">
-        <f>C23</f>
+        <f t="shared" ref="C49:H49" si="19">C23</f>
         <v>0</v>
       </c>
       <c r="D49" s="2">
-        <f>D23</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>4.2</v>
       </c>
       <c r="E49" s="2">
-        <f>E23</f>
-        <v>4.2</v>
+        <f t="shared" si="19"/>
+        <v>21.560000000000002</v>
       </c>
       <c r="F49" s="2">
-        <f>F23</f>
-        <v>21.560000000000002</v>
+        <f t="shared" si="19"/>
+        <v>26.936000000000003</v>
       </c>
       <c r="G49" s="2">
-        <f>G23</f>
+        <f t="shared" si="19"/>
         <v>26.936000000000003</v>
       </c>
       <c r="H49" s="2">
-        <f>H23</f>
-        <v>26.936000000000003</v>
+        <f t="shared" si="19"/>
+        <v>22.568000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <f>-B44</f>
-        <v>-101</v>
-      </c>
-      <c r="C50" s="8">
-        <f t="shared" ref="C50:H50" si="14">-C44</f>
-        <v>16</v>
-      </c>
-      <c r="D50" s="8">
-        <f t="shared" si="14"/>
-        <v>35.4</v>
-      </c>
-      <c r="E50" s="8">
-        <f t="shared" si="14"/>
-        <v>18.800000000000004</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="14"/>
+        <v>-102</v>
+      </c>
+      <c r="C50" s="7">
+        <f t="shared" ref="C50:H50" si="20">-C44</f>
+        <v>17</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="20"/>
+        <v>29</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="20"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="20"/>
         <v>11.519999999999996</v>
       </c>
-      <c r="G50" s="8">
-        <f t="shared" si="14"/>
+      <c r="G50" s="7">
+        <f t="shared" si="20"/>
         <v>11.519999999999996</v>
       </c>
-      <c r="H50" s="8">
-        <f t="shared" si="14"/>
-        <v>7.7600000000000051</v>
+      <c r="H50" s="7">
+        <f t="shared" si="20"/>
+        <v>15.760000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -2346,43 +2338,43 @@
       </c>
       <c r="B51" s="2">
         <f>B49+B50</f>
-        <v>-101</v>
+        <v>-102</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ref="C51:H51" si="15">C49+C50</f>
-        <v>16</v>
+        <f t="shared" ref="C51:H51" si="21">C49+C50</f>
+        <v>17</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="15"/>
-        <v>35.4</v>
+        <f t="shared" si="21"/>
+        <v>33.200000000000003</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="15"/>
-        <v>23.000000000000004</v>
+        <f t="shared" si="21"/>
+        <v>38.760000000000005</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="15"/>
-        <v>33.08</v>
+        <f t="shared" si="21"/>
+        <v>38.456000000000003</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>38.456000000000003</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="15"/>
-        <v>34.696000000000012</v>
+        <f t="shared" si="21"/>
+        <v>38.328000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>0.12</v>
       </c>
     </row>
@@ -2413,115 +2405,115 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="14" t="s">
+      <c r="A58" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <f>B51</f>
-        <v>-101</v>
-      </c>
-      <c r="C58" s="12">
-        <f t="shared" ref="C58:H58" si="16">C51</f>
-        <v>16</v>
-      </c>
-      <c r="D58" s="12">
-        <f t="shared" si="16"/>
-        <v>35.4</v>
-      </c>
-      <c r="E58" s="12">
-        <f t="shared" si="16"/>
-        <v>23.000000000000004</v>
-      </c>
-      <c r="F58" s="12">
-        <f t="shared" si="16"/>
-        <v>33.08</v>
-      </c>
-      <c r="G58" s="12">
-        <f t="shared" si="16"/>
+        <v>-102</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" ref="C58:H58" si="22">C51</f>
+        <v>17</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" si="22"/>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E58" s="11">
+        <f t="shared" si="22"/>
+        <v>38.760000000000005</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="22"/>
         <v>38.456000000000003</v>
       </c>
-      <c r="H58" s="12">
-        <f t="shared" si="16"/>
-        <v>34.696000000000012</v>
+      <c r="G58" s="11">
+        <f t="shared" si="22"/>
+        <v>38.456000000000003</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="22"/>
+        <v>38.328000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="14" t="s">
+      <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="13">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="13">
         <f>B59/(1+$B$55)</f>
         <v>0.89285714285714279</v>
       </c>
-      <c r="D59" s="15">
-        <f t="shared" ref="D59:H59" si="17">C59/(1+$B$55)</f>
+      <c r="D59" s="13">
+        <f t="shared" ref="D59:H59" si="23">C59/(1+$B$55)</f>
         <v>0.79719387755102022</v>
       </c>
-      <c r="E59" s="15">
-        <f t="shared" si="17"/>
+      <c r="E59" s="13">
+        <f t="shared" si="23"/>
         <v>0.71178024781341087</v>
       </c>
-      <c r="F59" s="15">
-        <f t="shared" si="17"/>
+      <c r="F59" s="13">
+        <f t="shared" si="23"/>
         <v>0.6355180784048311</v>
       </c>
-      <c r="G59" s="15">
-        <f t="shared" si="17"/>
+      <c r="G59" s="13">
+        <f t="shared" si="23"/>
         <v>0.56742685571859919</v>
       </c>
-      <c r="H59" s="15">
-        <f t="shared" si="17"/>
+      <c r="H59" s="13">
+        <f t="shared" si="23"/>
         <v>0.50663112117732068</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="14" t="s">
+      <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <f>B58*B59</f>
-        <v>-101</v>
-      </c>
-      <c r="C60" s="12">
-        <f t="shared" ref="C60:H60" si="18">C58*C59</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="D60" s="12">
-        <f t="shared" si="18"/>
-        <v>28.220663265306115</v>
-      </c>
-      <c r="E60" s="12">
-        <f t="shared" si="18"/>
-        <v>16.370945699708454</v>
-      </c>
-      <c r="F60" s="12">
-        <f t="shared" si="18"/>
-        <v>21.02293803363181</v>
-      </c>
-      <c r="G60" s="12">
-        <f t="shared" si="18"/>
+        <v>-102</v>
+      </c>
+      <c r="C60" s="11">
+        <f t="shared" ref="C60:H60" si="24">C58*C59</f>
+        <v>15.178571428571427</v>
+      </c>
+      <c r="D60" s="11">
+        <f t="shared" si="24"/>
+        <v>26.466836734693874</v>
+      </c>
+      <c r="E60" s="11">
+        <f t="shared" si="24"/>
+        <v>27.588602405247808</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="24"/>
+        <v>24.439483223136186</v>
+      </c>
+      <c r="G60" s="11">
+        <f t="shared" si="24"/>
         <v>21.820967163514453</v>
       </c>
-      <c r="H60" s="12">
-        <f t="shared" si="18"/>
-        <v>17.578073380368323</v>
+      <c r="H60" s="11">
+        <f t="shared" si="24"/>
+        <v>19.418157612484347</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="22">
         <f>SUM(B60:H60)</f>
-        <v>18.299301828243436</v>
+        <v>32.912618567648096</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="14" t="s">
+      <c r="A62" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2534,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DD7C63-8ABB-42FA-86E4-3C4C55694DF4}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A33" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2544,7 +2536,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2575,34 +2567,34 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9">
         <v>0.2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.32</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.192</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.1152</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.1152</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>20</v>
       </c>
       <c r="C5" s="2"/>
@@ -2619,27 +2611,27 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f>C4*$B$5</f>
+        <f t="shared" ref="C6:H6" si="0">C4*$B$5</f>
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <f>D4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="E6" s="2">
-        <f>E4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
       <c r="F6" s="2">
-        <f>F4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>2.3039999999999998</v>
       </c>
       <c r="G6" s="2">
-        <f>G4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>2.3039999999999998</v>
       </c>
       <c r="H6" s="2">
-        <f>H4*$B$5</f>
+        <f t="shared" si="0"/>
         <v>1.1519999999999999</v>
       </c>
     </row>
@@ -2647,31 +2639,31 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
         <f>C6</f>
         <v>4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f>D6+C7</f>
         <v>10.4</v>
       </c>
-      <c r="E7" s="8">
-        <f t="shared" ref="E7:H7" si="0">E6+D7</f>
+      <c r="E7" s="7">
+        <f t="shared" ref="E7:H7" si="1">E6+D7</f>
         <v>14.24</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
         <v>16.544</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
         <v>18.847999999999999</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2679,72 +2671,72 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>B5</f>
         <v>20</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:H8" si="1">$B$5-C7</f>
+        <f t="shared" ref="C8:H8" si="2">$B$5-C7</f>
         <v>16</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.76</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4559999999999995</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.152000000000001</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>3</v>
       </c>
     </row>
@@ -2778,28 +2770,28 @@
       <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <f>$B$12</f>
         <v>4</v>
       </c>
-      <c r="D18" s="17">
-        <f t="shared" ref="D18:H18" si="2">$B$12</f>
+      <c r="D18" s="15">
+        <f t="shared" ref="D18:H18" si="3">$B$12</f>
         <v>4</v>
       </c>
-      <c r="E18" s="17">
-        <f t="shared" si="2"/>
+      <c r="E18" s="15">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F18" s="17">
-        <f t="shared" si="2"/>
+      <c r="F18" s="15">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G18" s="17">
-        <f t="shared" si="2"/>
+      <c r="G18" s="15">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H18" s="17">
-        <f t="shared" si="2"/>
+      <c r="H18" s="15">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2807,28 +2799,28 @@
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="18">
-        <f>-C6</f>
+      <c r="C19" s="16">
+        <f t="shared" ref="C19:H19" si="4">-C6</f>
         <v>-4</v>
       </c>
-      <c r="D19" s="18">
-        <f>-D6</f>
+      <c r="D19" s="16">
+        <f t="shared" si="4"/>
         <v>-6.4</v>
       </c>
-      <c r="E19" s="18">
-        <f>-E6</f>
+      <c r="E19" s="16">
+        <f t="shared" si="4"/>
         <v>-3.84</v>
       </c>
-      <c r="F19" s="18">
-        <f>-F6</f>
+      <c r="F19" s="16">
+        <f t="shared" si="4"/>
         <v>-2.3039999999999998</v>
       </c>
-      <c r="G19" s="18">
-        <f>-G6</f>
+      <c r="G19" s="16">
+        <f t="shared" si="4"/>
         <v>-2.3039999999999998</v>
       </c>
-      <c r="H19" s="18">
-        <f>-H6</f>
+      <c r="H19" s="16">
+        <f t="shared" si="4"/>
         <v>-1.1519999999999999</v>
       </c>
     </row>
@@ -2836,7 +2828,7 @@
       <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <f>B15</f>
         <v>3</v>
       </c>
@@ -2855,7 +2847,7 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <f>B14</f>
         <v>4</v>
       </c>
@@ -2864,25 +2856,25 @@
       <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="19">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0</v>
-      </c>
-      <c r="H21" s="19">
+      <c r="B21" s="17">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
         <f>-H8</f>
         <v>0</v>
       </c>
@@ -2900,23 +2892,23 @@
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:H22" si="3">SUM(D18:D21)</f>
+        <f t="shared" ref="D22:H22" si="5">SUM(D18:D21)</f>
         <v>-2.4000000000000004</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16000000000000014</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6960000000000002</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6960000000000002</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.8479999999999999</v>
       </c>
     </row>
@@ -2924,32 +2916,32 @@
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <f>-$B$13*B22</f>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <f>-$B$13*C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="8">
-        <f t="shared" ref="D23:H23" si="4">-$B$13*D22</f>
+      <c r="D23" s="7">
+        <f t="shared" ref="D23:H23" si="6">-$B$13*D22</f>
         <v>0.72000000000000008</v>
       </c>
-      <c r="E23" s="8">
-        <f t="shared" si="4"/>
+      <c r="E23" s="7">
+        <f t="shared" si="6"/>
         <v>-4.8000000000000043E-2</v>
       </c>
-      <c r="F23" s="8">
-        <f t="shared" si="4"/>
+      <c r="F23" s="7">
+        <f t="shared" si="6"/>
         <v>-0.50880000000000003</v>
       </c>
-      <c r="G23" s="8">
-        <f t="shared" si="4"/>
+      <c r="G23" s="7">
+        <f t="shared" si="6"/>
         <v>-0.50880000000000003</v>
       </c>
-      <c r="H23" s="8">
-        <f t="shared" si="4"/>
+      <c r="H23" s="7">
+        <f t="shared" si="6"/>
         <v>-2.0543999999999998</v>
       </c>
     </row>
@@ -2966,33 +2958,33 @@
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:H24" si="5">D22+D23</f>
+        <f t="shared" ref="D24:H24" si="7">D22+D23</f>
         <v>-1.6800000000000002</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1120000000000001</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1872000000000003</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1872000000000003</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7935999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
@@ -3025,31 +3017,31 @@
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <f>B8</f>
+        <f t="shared" ref="B29:H29" si="8">B8</f>
         <v>20</v>
       </c>
       <c r="C29" s="2">
-        <f>C8</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D29" s="2">
-        <f>D8</f>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
       <c r="E29" s="2">
-        <f>E8</f>
+        <f t="shared" si="8"/>
         <v>5.76</v>
       </c>
       <c r="F29" s="2">
-        <f>F8</f>
+        <f t="shared" si="8"/>
         <v>3.4559999999999995</v>
       </c>
       <c r="G29" s="2">
-        <f>G8</f>
+        <f t="shared" si="8"/>
         <v>1.152000000000001</v>
       </c>
       <c r="H29" s="2">
-        <f>H8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3062,27 +3054,27 @@
         <v>20</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:H30" si="6">C29</f>
+        <f t="shared" ref="C30:H30" si="9">C29</f>
         <v>16</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.6</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.76</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.4559999999999995</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.152000000000001</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3099,33 +3091,33 @@
         <v>-4</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="D31:H31" si="7">D30-C30</f>
+        <f t="shared" ref="D31:H31" si="10">D30-C30</f>
         <v>-6.4</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-3.84</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.3040000000000003</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.3039999999999985</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.152000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
@@ -3158,31 +3150,31 @@
         <v>5</v>
       </c>
       <c r="B36" s="2">
-        <f>B24</f>
+        <f t="shared" ref="B36:H36" si="11">B24</f>
         <v>2.1</v>
       </c>
       <c r="C36" s="2">
-        <f>C24</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D36" s="2">
-        <f>D24</f>
+        <f t="shared" si="11"/>
         <v>-1.6800000000000002</v>
       </c>
       <c r="E36" s="2">
-        <f>E24</f>
+        <f t="shared" si="11"/>
         <v>0.1120000000000001</v>
       </c>
       <c r="F36" s="2">
-        <f>F24</f>
+        <f t="shared" si="11"/>
         <v>1.1872000000000003</v>
       </c>
       <c r="G36" s="2">
-        <f>G24</f>
+        <f t="shared" si="11"/>
         <v>1.1872000000000003</v>
       </c>
       <c r="H36" s="2">
-        <f>H24</f>
+        <f t="shared" si="11"/>
         <v>4.7935999999999996</v>
       </c>
     </row>
@@ -3190,32 +3182,32 @@
       <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <f>-B31</f>
         <v>-20</v>
       </c>
-      <c r="C37" s="8">
-        <f t="shared" ref="C37:H37" si="8">-C31</f>
+      <c r="C37" s="7">
+        <f t="shared" ref="C37:H37" si="12">-C31</f>
         <v>4</v>
       </c>
-      <c r="D37" s="8">
-        <f t="shared" si="8"/>
+      <c r="D37" s="7">
+        <f t="shared" si="12"/>
         <v>6.4</v>
       </c>
-      <c r="E37" s="8">
-        <f t="shared" si="8"/>
+      <c r="E37" s="7">
+        <f t="shared" si="12"/>
         <v>3.84</v>
       </c>
-      <c r="F37" s="8">
-        <f t="shared" si="8"/>
+      <c r="F37" s="7">
+        <f t="shared" si="12"/>
         <v>2.3040000000000003</v>
       </c>
-      <c r="G37" s="8">
-        <f t="shared" si="8"/>
+      <c r="G37" s="7">
+        <f t="shared" si="12"/>
         <v>2.3039999999999985</v>
       </c>
-      <c r="H37" s="8">
-        <f t="shared" si="8"/>
+      <c r="H37" s="7">
+        <f t="shared" si="12"/>
         <v>1.152000000000001</v>
       </c>
     </row>
@@ -3228,40 +3220,40 @@
         <v>-17.899999999999999</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ref="C38:H38" si="9">C36+C37</f>
+        <f t="shared" ref="C38:H38" si="13">C36+C37</f>
         <v>4</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.952</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.4912000000000005</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.4911999999999987</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.9456000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>0.12</v>
       </c>
     </row>
@@ -3292,115 +3284,115 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <f>B38</f>
         <v>-17.899999999999999</v>
       </c>
-      <c r="C45" s="12">
-        <f t="shared" ref="C45:H45" si="10">C38</f>
+      <c r="C45" s="11">
+        <f t="shared" ref="C45:H45" si="14">C38</f>
         <v>4</v>
       </c>
-      <c r="D45" s="12">
-        <f t="shared" si="10"/>
+      <c r="D45" s="11">
+        <f t="shared" si="14"/>
         <v>4.7200000000000006</v>
       </c>
-      <c r="E45" s="12">
-        <f t="shared" si="10"/>
+      <c r="E45" s="11">
+        <f t="shared" si="14"/>
         <v>3.952</v>
       </c>
-      <c r="F45" s="12">
-        <f t="shared" si="10"/>
+      <c r="F45" s="11">
+        <f t="shared" si="14"/>
         <v>3.4912000000000005</v>
       </c>
-      <c r="G45" s="12">
-        <f t="shared" si="10"/>
+      <c r="G45" s="11">
+        <f t="shared" si="14"/>
         <v>3.4911999999999987</v>
       </c>
-      <c r="H45" s="12">
-        <f t="shared" si="10"/>
+      <c r="H45" s="11">
+        <f t="shared" si="14"/>
         <v>5.9456000000000007</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="14" t="s">
+      <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="13">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="13">
         <f>B46/(1+$B$42)</f>
         <v>0.89285714285714279</v>
       </c>
-      <c r="D46" s="15">
-        <f t="shared" ref="D46:H46" si="11">C46/(1+$B$42)</f>
+      <c r="D46" s="13">
+        <f t="shared" ref="D46:H46" si="15">C46/(1+$B$42)</f>
         <v>0.79719387755102022</v>
       </c>
-      <c r="E46" s="15">
-        <f t="shared" si="11"/>
+      <c r="E46" s="13">
+        <f t="shared" si="15"/>
         <v>0.71178024781341087</v>
       </c>
-      <c r="F46" s="15">
-        <f t="shared" si="11"/>
+      <c r="F46" s="13">
+        <f t="shared" si="15"/>
         <v>0.6355180784048311</v>
       </c>
-      <c r="G46" s="15">
-        <f t="shared" si="11"/>
+      <c r="G46" s="13">
+        <f t="shared" si="15"/>
         <v>0.56742685571859919</v>
       </c>
-      <c r="H46" s="15">
-        <f t="shared" si="11"/>
+      <c r="H46" s="13">
+        <f t="shared" si="15"/>
         <v>0.50663112117732068</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="14" t="s">
+      <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <f>B45*B46</f>
         <v>-17.899999999999999</v>
       </c>
-      <c r="C47" s="12">
-        <f t="shared" ref="C47:H47" si="12">C45*C46</f>
+      <c r="C47" s="11">
+        <f t="shared" ref="C47:H47" si="16">C45*C46</f>
         <v>3.5714285714285712</v>
       </c>
-      <c r="D47" s="12">
-        <f t="shared" si="12"/>
+      <c r="D47" s="11">
+        <f t="shared" si="16"/>
         <v>3.7627551020408161</v>
       </c>
-      <c r="E47" s="12">
-        <f t="shared" si="12"/>
+      <c r="E47" s="11">
+        <f t="shared" si="16"/>
         <v>2.8129555393585997</v>
       </c>
-      <c r="F47" s="12">
-        <f t="shared" si="12"/>
+      <c r="F47" s="11">
+        <f t="shared" si="16"/>
         <v>2.2187207153269468</v>
       </c>
-      <c r="G47" s="12">
-        <f t="shared" si="12"/>
+      <c r="G47" s="11">
+        <f t="shared" si="16"/>
         <v>1.9810006386847727</v>
       </c>
-      <c r="H47" s="12">
-        <f t="shared" si="12"/>
+      <c r="H47" s="11">
+        <f t="shared" si="16"/>
         <v>3.0122259940718781</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="22">
         <f>SUM(B47:H47)</f>
         <v>-0.54091343908841516</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="14" t="s">
+      <c r="A49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3413,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFBC0FB-08A3-49CD-A317-736E0D2FF417}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3423,14 +3415,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3458,10 +3450,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>50</v>
       </c>
       <c r="C6" s="2"/>
@@ -3471,25 +3463,25 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>15</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>10</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3497,26 +3489,26 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
         <f>C7</f>
         <v>20</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f>D7+C8</f>
         <v>35</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f t="shared" ref="E8:G8" si="0">E7+D8</f>
         <v>45</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -3525,7 +3517,7 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f>B6</f>
         <v>50</v>
       </c>
@@ -3551,42 +3543,42 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -3612,15 +3604,6 @@
       <c r="G18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
@@ -3648,23 +3631,23 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="21">
+      <c r="B21" s="10"/>
+      <c r="C21" s="19">
         <v>20</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>18</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>15</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>12</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="19">
         <v>10</v>
       </c>
     </row>
@@ -3749,23 +3732,23 @@
       <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <f>-C7</f>
         <v>-20</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <f t="shared" ref="D25:G25" si="5">-D7</f>
         <v>-15</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f t="shared" si="5"/>
         <v>-10</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3799,23 +3782,23 @@
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <f>-$B$16*C26</f>
         <v>-24</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <f>-$B$16*D26</f>
         <v>-19.5</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f>-$B$16*E26</f>
         <v>-12</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <f>-$B$16*F26</f>
         <v>-4.5</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f>-$B$16*G26</f>
         <v>0</v>
       </c>
@@ -3846,47 +3829,47 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
@@ -3916,28 +3899,28 @@
         <v>2</v>
       </c>
       <c r="B38" s="2">
-        <f>B34</f>
+        <f>$B$34</f>
         <v>20</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ref="C38:G38" si="8">C34</f>
-        <v>0</v>
+        <f t="shared" ref="C38:G38" si="8">$B$34</f>
+        <v>20</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -3973,27 +3956,27 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <f>-$B$35</f>
         <v>-5</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <f t="shared" ref="C40:G40" si="10">-$B$35</f>
         <v>-5</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <f t="shared" si="10"/>
         <v>-5</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <f t="shared" si="10"/>
         <v>-5</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <f t="shared" si="10"/>
         <v>-5</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <f t="shared" si="10"/>
         <v>-5</v>
       </c>
@@ -4008,32 +3991,32 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ref="C41:G41" si="11">SUM(C38:C40)</f>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
@@ -4062,28 +4045,28 @@
       <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="12">
-        <f>B9</f>
+      <c r="B46" s="11">
+        <f t="shared" ref="B46:G46" si="12">B9</f>
         <v>50</v>
       </c>
       <c r="C46" s="2">
-        <f>C9</f>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="D46" s="2">
-        <f>D9</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="E46" s="2">
-        <f>E9</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="F46" s="2">
-        <f>F9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <f>G9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4091,29 +4074,28 @@
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <f>B41</f>
         <v>35</v>
       </c>
-      <c r="C47" s="8">
-        <f t="shared" ref="C47:G47" si="12">C41</f>
-        <v>15</v>
-      </c>
-      <c r="D47" s="8">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="E47" s="8">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="12"/>
-        <v>5</v>
+      <c r="C47" s="7">
+        <f t="shared" ref="C47:G47" si="13">C41</f>
+        <v>35</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -4125,24 +4107,24 @@
         <v>85</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" ref="C48:G48" si="13">C46+C47</f>
-        <v>45</v>
+        <f t="shared" ref="C48:G48" si="14">C46+C47</f>
+        <v>65</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="13"/>
-        <v>28</v>
+        <f t="shared" si="14"/>
+        <v>48</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>35</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>27</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -4150,37 +4132,36 @@
         <v>41</v>
       </c>
       <c r="B49" s="2">
-        <f>B48</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C49" s="2">
         <f>C48-B48</f>
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" ref="D49:G49" si="14">D48-C48</f>
+        <f t="shared" ref="D49:G49" si="15">D48-C48</f>
         <v>-17</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-13</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="14"/>
-        <v>-2</v>
+        <f t="shared" si="15"/>
+        <v>-27</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
@@ -4237,28 +4218,29 @@
       <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="8">
-        <v>0</v>
-      </c>
-      <c r="C55" s="8">
-        <f t="shared" ref="C55:G55" si="15">-C49</f>
-        <v>40</v>
-      </c>
-      <c r="D55" s="8">
-        <f t="shared" si="15"/>
+      <c r="B55" s="7">
+        <f t="shared" ref="B55:G55" si="16">-B49</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="E55" s="8">
-        <f t="shared" si="15"/>
+      <c r="E55" s="7">
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="F55" s="8">
-        <f t="shared" si="15"/>
+      <c r="F55" s="7">
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="G55" s="8">
-        <f t="shared" si="15"/>
-        <v>2</v>
+      <c r="G55" s="7">
+        <f t="shared" si="16"/>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -4270,36 +4252,36 @@
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" ref="C56:G56" si="16">C54+C55</f>
-        <v>96</v>
+        <f t="shared" ref="C56:G56" si="17">C54+C55</f>
+        <v>76</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>62.5</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.5</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>0.12</v>
       </c>
     </row>
@@ -4327,113 +4309,114 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="14" t="s">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <f>B56</f>
         <v>0</v>
       </c>
-      <c r="C63" s="12">
-        <f t="shared" ref="C63:G63" si="17">C56</f>
-        <v>96</v>
-      </c>
-      <c r="D63" s="12">
-        <f t="shared" si="17"/>
+      <c r="C63" s="11">
+        <f t="shared" ref="C63:G63" si="18">C56</f>
+        <v>76</v>
+      </c>
+      <c r="D63" s="11">
+        <f t="shared" si="18"/>
         <v>62.5</v>
       </c>
-      <c r="E63" s="12">
-        <f t="shared" si="17"/>
+      <c r="E63" s="11">
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
-      <c r="F63" s="12">
-        <f t="shared" si="17"/>
+      <c r="F63" s="11">
+        <f t="shared" si="18"/>
         <v>18.5</v>
       </c>
-      <c r="G63" s="12">
-        <f t="shared" si="17"/>
-        <v>2</v>
+      <c r="G63" s="11">
+        <f t="shared" si="18"/>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="14" t="s">
+      <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="13">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="13">
         <f>B64/(1+$B$60)</f>
         <v>0.89285714285714279</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="13">
         <f>C64/(1+$B$60)</f>
         <v>0.79719387755102022</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="13">
         <f>D64/(1+$B$60)</f>
         <v>0.71178024781341087</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="13">
         <f>E64/(1+$B$60)</f>
         <v>0.6355180784048311</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="13">
         <f>F64/(1+$B$60)</f>
         <v>0.56742685571859919</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="14" t="s">
+      <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <f>B63*B64</f>
         <v>0</v>
       </c>
-      <c r="C65" s="12">
-        <f t="shared" ref="C65:G65" si="18">C63*C64</f>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="D65" s="12">
-        <f t="shared" si="18"/>
+      <c r="C65" s="11">
+        <f t="shared" ref="C65:G65" si="19">C63*C64</f>
+        <v>67.857142857142847</v>
+      </c>
+      <c r="D65" s="11">
+        <f t="shared" si="19"/>
         <v>49.824617346938766</v>
       </c>
-      <c r="E65" s="12">
-        <f t="shared" si="18"/>
+      <c r="E65" s="11">
+        <f t="shared" si="19"/>
         <v>29.182990160349846</v>
       </c>
-      <c r="F65" s="12">
-        <f t="shared" si="18"/>
+      <c r="F65" s="11">
+        <f t="shared" si="19"/>
         <v>11.757084450489375</v>
       </c>
-      <c r="G65" s="12">
-        <f t="shared" si="18"/>
-        <v>1.1348537114371984</v>
+      <c r="G65" s="11">
+        <f t="shared" si="19"/>
+        <v>15.320525104402178</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="22">
         <f>SUM(B65:G65)</f>
-        <v>177.61383138350087</v>
+        <v>173.94235991932302</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="68" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="18"/>
     </row>
     <row r="69" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="D70" s="11"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
@@ -4442,24 +4425,12 @@
       <c r="B72" s="1">
         <v>0</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="10">
         <v>40</v>
       </c>
     </row>
@@ -4467,7 +4438,7 @@
       <c r="A75" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B75" s="20">
         <f>-B6</f>
         <v>-50</v>
       </c>
@@ -4476,7 +4447,7 @@
       <c r="A76" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <f>B74+B75</f>
         <v>-10</v>
       </c>
@@ -4485,7 +4456,7 @@
       <c r="A77" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B77" s="20">
         <f>-B16*B76</f>
         <v>3</v>
       </c>
@@ -4494,18 +4465,18 @@
       <c r="A78" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="11">
         <f>B76+B77</f>
         <v>-7</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
@@ -4519,7 +4490,7 @@
       <c r="A84" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="11">
         <f>B78</f>
         <v>-7</v>
       </c>
@@ -4528,18 +4499,18 @@
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="20">
         <f>B49</f>
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="24">
+      <c r="B86" s="22">
         <f>B85+B84</f>
-        <v>78</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
